--- a/MarsEdu/Data/import/user.xlsx
+++ b/MarsEdu/Data/import/user.xlsx
@@ -100,11 +100,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,11 +113,6 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -574,146 +569,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -728,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
